--- a/source_analyses/eu/2012/2_power_and_heat_plant/solar_source_analysis.xlsx
+++ b/source_analyses/eu/2012/2_power_and_heat_plant/solar_source_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>Source: http://re.jrc.ec.europa.eu/pvgis/apps/pvreg.php?lang=en&amp;map=europe</t>
   </si>
@@ -90,7 +90,10 @@
     <t>No aggregate data for Europe is available for Europe; we assume the FLH to be the average of the other 6 countries</t>
   </si>
   <si>
-    <t>This value is to low. If we use these FLH in the 2_power_and_plant_analysis for 2012, we get much higher installed capacities than reported in e.g. Energia en Espana. The installed capacities reported there are in agreement with those reported in EPIA, 2013. Global Market Outlook for Photovoltaics 2013-2017. We decided to derive the FLH from the production and installed capacities reported in Energia en Espana 2012.</t>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This value is to low. If we use these FLH in the 2_power_and_plant_analysis for 2012, we get much higher installed capacities than reported in e.g. Energia en Espana. The installed capacities reported there are in agreement with those reported in EPIA, 2013. Global Market Outlook for Photovoltaics 2013-2017. We decided to derive the FLH from the production and installed capacities reported in Energia en Espana 2012. This leads to a total of ~1780 FLH. </t>
   </si>
 </sst>
 </file>
@@ -103,6 +106,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -365,6 +369,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -712,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -720,6 +726,7 @@
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -847,7 +854,7 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -893,7 +900,7 @@
         <f>(C18+E18)/2</f>
         <v>1077</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="22">
         <f>G18*C11</f>
         <v>893.91</v>
       </c>
@@ -924,7 +931,7 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -938,14 +945,14 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
+      <c r="M24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" t="s">
@@ -960,12 +967,12 @@
       <c r="E25" s="5">
         <v>1365</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1">
       <c r="B26" t="s">
@@ -984,16 +991,16 @@
         <f>(C26+E26)/2</f>
         <v>1697</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="22">
         <f>G26*C11</f>
         <v>1408.51</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
     </row>
     <row r="27" spans="2:18" ht="16" thickBot="1">
       <c r="B27" t="s">
@@ -1008,28 +1015,28 @@
       <c r="E27" s="11">
         <v>2028</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
@@ -1043,7 +1050,7 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1077,7 +1084,7 @@
         <f>(C34+E34)/2</f>
         <v>0</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="22">
         <f>AVERAGE(K18,K26,K42,K50,K58,K66)</f>
         <v>1001.0491666666668</v>
       </c>
@@ -1102,7 +1109,7 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1148,7 +1155,7 @@
         <f>(C42+E42)/2</f>
         <v>1297</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="22">
         <f>G42*C11</f>
         <v>1076.51</v>
       </c>
@@ -1179,7 +1186,7 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1194,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -1225,12 +1232,12 @@
         <f>(C50+E50)/2</f>
         <v>1044</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="22">
         <f>G50*C11</f>
         <v>866.52</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="16" thickBot="1">
+    <row r="51" spans="2:14" ht="16" thickBot="1">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -1244,23 +1251,26 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:14">
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="2:11">
+      <c r="N54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="16" thickBot="1">
+    <row r="56" spans="2:14" ht="16" thickBot="1">
       <c r="C56" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
         <v>13</v>
       </c>
@@ -1302,12 +1312,12 @@
         <f>(C58+E58)/2</f>
         <v>1084</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="22">
         <f>G58*C11</f>
         <v>899.71999999999991</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="16" thickBot="1">
+    <row r="59" spans="2:14" ht="16" thickBot="1">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -1321,23 +1331,23 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:14">
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:14">
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="16" thickBot="1">
+    <row r="64" spans="2:14" ht="16" thickBot="1">
       <c r="C64" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1389,7 @@
         <f>(C66+E66)/2</f>
         <v>1037.5</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="22">
         <f>G66*C11</f>
         <v>861.125</v>
       </c>
